--- a/branches/bundle-instances-base-profiles/ValueSet-vs-yes-no.xlsx
+++ b/branches/bundle-instances-base-profiles/ValueSet-vs-yes-no.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T07:37:09+00:00</t>
+    <t>2022-09-22T08:02:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
